--- a/second_version/webscraping/bxl_to_sao/booking_23_may_08_AM.xlsx
+++ b/second_version/webscraping/bxl_to_sao/booking_23_may_08_AM.xlsx
@@ -266,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
